--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>时长(半小时为最小记量单位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,8 +77,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,16 +378,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -393,6 +400,17 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40986</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>项目启动工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码框架整理（参照神仙道）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -411,6 +415,17 @@
       </c>
       <c r="C2" s="1">
         <v>40986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40987</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>代码框架整理（参照神仙道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码框架整理,理解神仙道代码结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -426,6 +430,17 @@
       </c>
       <c r="C3" s="1">
         <v>40987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40988</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -441,6 +441,17 @@
       </c>
       <c r="C4" s="1">
         <v>40988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40989</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>代码框架整理,理解神仙道代码结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码整理，已能在神仙道框架下下载SWF。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -452,6 +456,17 @@
       </c>
       <c r="C5" s="1">
         <v>40989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40990</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>代码整理，已能在神仙道框架下下载SWF。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱战代码入手，尝试编译中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -467,6 +471,22 @@
       </c>
       <c r="C6" s="1">
         <v>40990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>乱战代码入手，尝试编译中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用flex，解决编译中错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -481,12 +485,29 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>40990</v>
+        <v>40991</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40993</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>使用flex，解决编译中错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码编译，（神仙道），排错中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -508,6 +512,17 @@
       </c>
       <c r="C9" s="1">
         <v>40993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40994</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>代码编译，（神仙道），排错中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神仙道编译完成，可载入swf,但调用对象有问题，排错中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -523,6 +527,17 @@
       </c>
       <c r="C10" s="1">
         <v>40994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40995</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>神仙道编译完成，可载入swf,但调用对象有问题，排错中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">调试神仙道 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -538,6 +542,17 @@
       </c>
       <c r="C11" s="1">
         <v>40995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40996</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t xml:space="preserve">调试神仙道 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决外部SWF类无法正确加载，写建立SFS连接代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -553,6 +557,17 @@
       </c>
       <c r="C12" s="1">
         <v>40996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40997</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>解决外部SWF类无法正确加载，写建立SFS连接代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神仙道已能开始连接服务器，并下载SWF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -568,6 +572,17 @@
       </c>
       <c r="C13" s="1">
         <v>40997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40998</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>神仙道已能开始连接服务器，并下载SWF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试initloading界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -583,6 +587,17 @@
       </c>
       <c r="C14" s="1">
         <v>40998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40999</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>调试initloading界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示initloading界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,6 +602,17 @@
       </c>
       <c r="C15" s="1">
         <v>40999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>41000</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>正确显示initloading界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理登录界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -615,7 +619,19 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41001</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>处理登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面显示完成，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -628,6 +632,17 @@
       </c>
       <c r="C17" s="1">
         <v>41001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41002</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>主界面显示完成，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -643,6 +647,17 @@
       </c>
       <c r="C18" s="1">
         <v>41002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41004</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>登录界面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间大厅处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -658,6 +662,17 @@
       </c>
       <c r="C19" s="1">
         <v>41004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41006</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -673,6 +673,17 @@
       </c>
       <c r="C20" s="1">
         <v>41006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41007</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>房间大厅处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间准备界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -684,6 +688,17 @@
       </c>
       <c r="C21" s="1">
         <v>41007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41008</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -699,6 +699,17 @@
       </c>
       <c r="C22" s="1">
         <v>41008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41009</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>房间准备界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码整理，提取出toolbar类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -710,6 +714,17 @@
       </c>
       <c r="C23" s="1">
         <v>41009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>2.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41010</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>代码整理，提取出toolbar类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入大厅的客户端逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,6 +729,17 @@
       </c>
       <c r="C24" s="1">
         <v>41010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41011</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>加入大厅的客户端逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出房间逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -740,6 +744,17 @@
       </c>
       <c r="C25" s="1">
         <v>41011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41012</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>进出房间逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">房间大厅显示处理完成 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -755,6 +759,17 @@
       </c>
       <c r="C26" s="1">
         <v>41012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41013</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t xml:space="preserve">房间大厅显示处理完成 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备与开始游戏逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -770,6 +774,17 @@
       </c>
       <c r="C27" s="1">
         <v>41013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41014</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>准备与开始游戏逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家就绪逻辑完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
@@ -785,6 +789,17 @@
       </c>
       <c r="C28" s="1">
         <v>41014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41015</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>玩家就绪逻辑完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗场景界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -800,6 +804,17 @@
       </c>
       <c r="C29" s="1">
         <v>41015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1.5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41016</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>进入战斗场景界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态数据处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -815,6 +819,17 @@
       </c>
       <c r="C30" s="1">
         <v>41016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41017</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>静态数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -830,6 +834,14 @@
       </c>
       <c r="C31" s="1">
         <v>41017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41019</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>战斗界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面美术实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -840,8 +844,22 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
       <c r="C32" s="1">
         <v>41019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41020</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -860,6 +860,17 @@
       </c>
       <c r="C33" s="1">
         <v>41020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41021</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>战斗界面美术实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗卡牌设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -871,6 +875,17 @@
       </c>
       <c r="C34" s="1">
         <v>41021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>41022</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>战斗卡牌设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成器，将，缘几类卡牌美术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -886,6 +890,17 @@
       </c>
       <c r="C35" s="1">
         <v>41022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>1.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>41023</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -901,6 +901,17 @@
       </c>
       <c r="C36" s="1">
         <v>41023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>1.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41024</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>完成器，将，缘几类卡牌美术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进卡牌的美术实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -912,6 +916,17 @@
       </c>
       <c r="C37" s="1">
         <v>41024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>41025</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>改进卡牌的美术实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -927,6 +931,17 @@
       </c>
       <c r="C38" s="1">
         <v>41025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>41026</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>卡牌设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">卡片制作 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -942,6 +946,17 @@
       </c>
       <c r="C39" s="1">
         <v>41026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>41028</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -957,6 +957,17 @@
       </c>
       <c r="C40" s="1">
         <v>41028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41029</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t xml:space="preserve">卡片制作 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片显示相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -968,6 +972,17 @@
       </c>
       <c r="C41" s="1">
         <v>41029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41030</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>卡片显示相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理客户端卡片数据，和程序读取操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -983,6 +987,17 @@
       </c>
       <c r="C42" s="1">
         <v>41030</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>2.5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>41031</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>整理客户端卡片数据，和程序读取操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌显示卡片处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -998,6 +1002,17 @@
       </c>
       <c r="C43" s="1">
         <v>41031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>41032</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1013,6 +1013,17 @@
       </c>
       <c r="C44" s="1">
         <v>41032</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>41033</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1024,6 +1024,17 @@
       </c>
       <c r="C45" s="1">
         <v>41033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41034</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>牌桌显示卡片处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌卡片战斗界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1035,6 +1039,17 @@
       </c>
       <c r="C46" s="1">
         <v>41034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>41035</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>牌桌卡片战斗界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片的tip实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1050,6 +1054,17 @@
       </c>
       <c r="C47" s="1">
         <v>41035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>41036</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1065,6 +1065,17 @@
       </c>
       <c r="C48" s="1">
         <v>41036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41037</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>卡片的tip实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗表现相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏消息结构确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1076,6 +1084,28 @@
       </c>
       <c r="C49" s="1">
         <v>41037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>41038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>41039</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>游戏消息结构确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏客户端战斗处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1105,7 +1109,18 @@
         <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>41039</v>
+        <v>41041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>41042</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1103,23 +1103,34 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>41041</v>
+        <v>41040</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>41041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
         <v>41042</v>
       </c>
     </row>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1132,6 +1132,17 @@
       </c>
       <c r="C53" s="1">
         <v>41042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>41043</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1143,6 +1143,17 @@
       </c>
       <c r="C54" s="1">
         <v>41043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>41044</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1154,6 +1154,17 @@
       </c>
       <c r="C55" s="1">
         <v>41044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>41045</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1165,6 +1165,17 @@
       </c>
       <c r="C56" s="1">
         <v>41045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>41046</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>游戏客户端战斗处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗美术资源增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1176,6 +1180,17 @@
       </c>
       <c r="C57" s="1">
         <v>41046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>41048</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1187,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>41048</v>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -1187,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
         <v>41048</v>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>战斗美术资源增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果表现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,6 +1195,17 @@
       </c>
       <c r="C58" s="1">
         <v>41048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>2.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>41049</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1206,6 +1206,17 @@
       </c>
       <c r="C59" s="1">
         <v>41049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60">
+        <v>1.5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>41050</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1217,6 +1217,17 @@
       </c>
       <c r="C60" s="1">
         <v>41050</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61">
+        <v>1.5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>41051</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>战斗结果表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新一套数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1228,6 +1232,17 @@
       </c>
       <c r="C61" s="1">
         <v>41051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62">
+        <v>1.5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>41052</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>更新一套数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗消息处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
@@ -1243,6 +1247,17 @@
       </c>
       <c r="C62" s="1">
         <v>41052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>41053</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1258,6 +1258,17 @@
       </c>
       <c r="C63" s="1">
         <v>41053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>41054</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1269,6 +1269,28 @@
       </c>
       <c r="C64" s="1">
         <v>41054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>41056</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>战斗消息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌上按钮处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1291,6 +1295,17 @@
       </c>
       <c r="C66" s="1">
         <v>41056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67">
+        <v>1.5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>41057</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>卡牌上按钮处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备卡显示处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1306,6 +1310,17 @@
       </c>
       <c r="C67" s="1">
         <v>41057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>41058</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>装备卡显示处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器相关代码研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,6 +1325,17 @@
       </c>
       <c r="C68" s="1">
         <v>41058</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>41059</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>服务器相关代码研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器框架修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1336,6 +1340,17 @@
       </c>
       <c r="C69" s="1">
         <v>41059</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>41060</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1351,6 +1351,17 @@
       </c>
       <c r="C70" s="1">
         <v>41060</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>41061</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>服务器框架修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调,实现了客户端接收初始牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1362,6 +1370,28 @@
       </c>
       <c r="C71" s="1">
         <v>41061</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>41062</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>41063</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>联调,实现了客户端接收初始牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收发初始回合消息,框架代码完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1392,6 +1396,17 @@
       </c>
       <c r="C73" s="1">
         <v>41063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>41064</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>收发初始回合消息,框架代码完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1407,6 +1411,17 @@
       </c>
       <c r="C74" s="1">
         <v>41064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>41065</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>AI相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗与调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1422,6 +1426,17 @@
       </c>
       <c r="C75" s="1">
         <v>41065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>2.5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>41066</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>战斗与调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上牌到资源区操作流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1437,6 +1441,17 @@
       </c>
       <c r="C76" s="1">
         <v>41066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>2.5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>41067</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>完成上牌到资源区操作流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方上牌回合转化处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1452,6 +1456,17 @@
       </c>
       <c r="C77" s="1">
         <v>41067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>41069</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>双方上牌回合转化处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始信息处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1467,6 +1471,17 @@
       </c>
       <c r="C78" s="1">
         <v>41069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>41071</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1482,6 +1482,17 @@
       </c>
       <c r="C79" s="1">
         <v>41071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80">
+        <v>1.5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>41072</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>回合开始信息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试,离线时处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1493,6 +1497,17 @@
       </c>
       <c r="C80" s="1">
         <v>41072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>41073</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>调试,离线时处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗链处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1508,6 +1512,17 @@
       </c>
       <c r="C81" s="1">
         <v>41073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>41076</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1523,6 +1523,17 @@
       </c>
       <c r="C82" s="1">
         <v>41076</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>41077</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>战斗链处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌的异能处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1534,6 +1538,17 @@
       </c>
       <c r="C83" s="1">
         <v>41077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>41078</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1549,6 +1549,17 @@
       </c>
       <c r="C84" s="1">
         <v>41078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>41079</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1560,6 +1560,17 @@
       </c>
       <c r="C85" s="1">
         <v>41079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>41080</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1571,6 +1571,17 @@
       </c>
       <c r="C86" s="1">
         <v>41080</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>41081</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>牌的异能处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时和回合结束处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1582,6 +1586,17 @@
       </c>
       <c r="C87" s="1">
         <v>41081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>41082</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>倒计时和回合结束处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端战斗调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1597,6 +1601,17 @@
       </c>
       <c r="C88" s="1">
         <v>41082</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>41084</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>客户端战斗调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择并攻击敌方的界面表现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1612,6 +1616,17 @@
       </c>
       <c r="C89" s="1">
         <v>41084</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>41085</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>选择并攻击敌方的界面表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击流程完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1627,6 +1631,17 @@
       </c>
       <c r="C90" s="1">
         <v>41085</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>41086</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>攻击流程完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞台居中处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1642,6 +1646,28 @@
       </c>
       <c r="C91" s="1">
         <v>41086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>2.5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>41087</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>41088</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>舞台居中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗显示处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1668,6 +1672,17 @@
       </c>
       <c r="C93" s="1">
         <v>41088</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>41091</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1683,6 +1683,17 @@
       </c>
       <c r="C94" s="1">
         <v>41091</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>41093</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>战斗显示处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗链表现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1694,6 +1698,17 @@
       </c>
       <c r="C95" s="1">
         <v>41093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96">
+        <v>1.5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>41096</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1709,6 +1709,17 @@
       </c>
       <c r="C96" s="1">
         <v>41096</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>41098</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>战斗链表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗BUG修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1720,6 +1724,17 @@
       </c>
       <c r="C97" s="1">
         <v>41098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>41100</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1735,6 +1735,17 @@
       </c>
       <c r="C98" s="1">
         <v>41100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>41101</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,10 @@
   </si>
   <si>
     <t>战斗BUG修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术卡片处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1746,6 +1750,17 @@
       </c>
       <c r="C99" s="1">
         <v>41101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100">
+        <v>3.5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>41102</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1761,6 +1761,17 @@
       </c>
       <c r="C100" s="1">
         <v>41102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>41104</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1772,6 +1772,17 @@
       </c>
       <c r="C101" s="1">
         <v>41104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>41105</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,10 @@
   </si>
   <si>
     <t>法术卡片处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌异能处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1783,6 +1787,17 @@
       </c>
       <c r="C102" s="1">
         <v>41105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>41106</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1798,6 +1798,17 @@
       </c>
       <c r="C103" s="1">
         <v>41106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1">
+        <v>41107</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>卡牌异能处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端卡片异能数据与调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1809,6 +1813,17 @@
       </c>
       <c r="C104" s="1">
         <v>41107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>41110</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1824,6 +1824,17 @@
       </c>
       <c r="C105" s="1">
         <v>41110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106">
+        <v>1.5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>41111</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>客户端卡片异能数据与调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌上场的异能处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1835,6 +1839,17 @@
       </c>
       <c r="C106" s="1">
         <v>41111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1">
+        <v>41112</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
@@ -1850,6 +1850,17 @@
       </c>
       <c r="C107" s="1">
         <v>41112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>41113</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1861,6 +1861,17 @@
       </c>
       <c r="C108" s="1">
         <v>41113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>41114</v>
       </c>
     </row>
   </sheetData>

--- a/work_log/朱发楠_工作表.xlsx
+++ b/work_log/朱发楠_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>卡牌上场的异能处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习规则，重构代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1872,6 +1876,17 @@
       </c>
       <c r="C109" s="1">
         <v>41114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1">
+        <v>41115</v>
       </c>
     </row>
   </sheetData>
